--- a/biology/Botanique/Arboretum_de_Sibang/Arboretum_de_Sibang.xlsx
+++ b/biology/Botanique/Arboretum_de_Sibang/Arboretum_de_Sibang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arboretum de Sibang est un arborétum situe dans le 3ème arrondissement de  Libreville au Gabon[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arboretum de Sibang est un arborétum situe dans le 3ème arrondissement de  Libreville au Gabon.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé le 31 mars 1954 à l'intérieur de Libreville l'arboretum s'étend sur plus de 16 hectares de forêt équatoriale.
 Le terrain, relativement plat, est limité au nord par la route de Nzeng-Ayong, au sud et, a l'ouest, par un mur de béton et a l'Est par la rivière Adoung.
@@ -548,9 +562,11 @@
           <t>Visites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Arboretum de Sibang est ouvert au public du lundi au vendredi de 9h à 15h[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Arboretum de Sibang est ouvert au public du lundi au vendredi de 9h à 15h.
 la visite est guidée et se fait par petits groupes.
 </t>
         </is>
